--- a/2COURSE/2SEM/Physics/lab_3_07/3.07.xlsx
+++ b/2COURSE/2SEM/Physics/lab_3_07/3.07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\Physics\lab_3_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DFBF56D-C3CA-491A-8A0F-57C6BB6E38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196BFB40-1771-40F2-A5C0-DC9D29378B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,6 +403,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$E$12:$E$26</c:f>
@@ -596,6 +604,14 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$E$12:$E$26</c:f>
@@ -1060,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2COURSE/2SEM/Physics/lab_3_07/3.07.xlsx
+++ b/2COURSE/2SEM/Physics/lab_3_07/3.07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\Physics\lab_3_07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196BFB40-1771-40F2-A5C0-DC9D29378B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C9BC36-BDF5-4B17-BF22-1CB816ADAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Таблица 1.</t>
   </si>
@@ -270,6 +270,9 @@
       </rPr>
       <t>π*10^-7</t>
     </r>
+  </si>
+  <si>
+    <t>µµ</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8770378175662745E-2"/>
+          <c:y val="1.6489685489174642E-2"/>
+          <c:w val="0.84931590634551446"/>
+          <c:h val="0.90230741129469627"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -544,6 +557,29 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Напряженность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> магнитного поля Н, А/м</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -560,6 +596,32 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Магнитная индукция </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>B,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> Тл</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -597,7 +659,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9296341002157465E-2"/>
+          <c:y val="1.8102030171923331E-2"/>
+          <c:w val="0.86641189150176956"/>
+          <c:h val="0.85380988112126543"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -745,6 +817,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Напряженность магнитного поля</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> H, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>А/м</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -762,6 +860,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Магнитная проницаемость</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> µ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -788,15 +909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>42301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177611</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -825,16 +946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>43981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1852,7 @@
         <v>10.527411455114361</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1794,7 +1915,7 @@
         <v>10.90551701359839</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -1857,7 +1978,7 @@
         <v>16.608072003043702</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>8</v>
       </c>
@@ -1871,7 +1992,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="0"/>
+        <f>C19*D19/1000*$U$2</f>
         <v>53.36538461538462</v>
       </c>
       <c r="F19" s="14">
@@ -1920,7 +2041,7 @@
         <v>7.6825709360729036E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1985,7 +2106,7 @@
         <v>19.663530903770994</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2048,7 +2169,7 @@
         <v>698.73796168978652</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2106,7 +2227,7 @@
         <v>852.73199429333613</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2164,7 +2285,7 @@
         <v>827.21820309920133</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -2229,7 +2350,7 @@
         <v>17.320508075688775</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -2294,7 +2415,7 @@
         <v>1.4487091167699099E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -2358,7 +2479,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T27" s="3" t="s">
         <v>64</v>
       </c>
@@ -2367,7 +2488,7 @@
         <v>18.307897501498243</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T28" s="3" t="s">
         <v>65</v>
       </c>
@@ -2376,7 +2497,12 @@
         <v>1.2908822011786641E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB29" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2385,7 +2511,7 @@
         <v>4775.4797653628739</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="T32" s="1" t="s">
         <v>67</v>
       </c>
@@ -2396,7 +2522,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>